--- a/header_template.xlsx
+++ b/header_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008E9DB-A7E3-40A7-9E0F-6BBE1EE86EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2326C7-F14E-49DA-ABE2-E1DC542A9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="8880" xr2:uid="{75A29654-A900-47EC-950E-C24E909D3CE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75A29654-A900-47EC-950E-C24E909D3CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,12 +136,6 @@
     </font>
     <font>
       <i/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="8.5"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -198,6 +192,12 @@
     <font>
       <i/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -230,48 +230,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36C1DAE-D926-4715-BEB3-2ABD55A081C4}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,11 +617,11 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
